--- a/wwwroot/ReportTemplate/template.xlsx
+++ b/wwwroot/ReportTemplate/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hoc_tap_Dai_hoc\Fall_2021_OJT\FRM-Project\kronii\kronii-api\ReportTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hoc_tap_Dai_hoc\Fall_2021_OJT\FRM-Project\kronii\kronii-api\wwwroot\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9384879-9B9F-44A3-BCA7-2DFCD1591803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8C5C2E-83F1-4434-A2DF-619E6A92DB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{21C70729-7C47-4080-A986-AF14D285AFCF}"/>
   </bookViews>
@@ -2043,8 +2043,10 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L8" sqref="L8"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2202,10 +2204,10 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q7" sqref="Q7"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,7 +2314,10 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2452,7 +2457,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2510,7 +2518,10 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2837,7 +2848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B8E099-42EE-408D-9E64-D51FF0980371}">
   <dimension ref="A1:O259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H24" sqref="H24:K24"/>
     </sheetView>
   </sheetViews>
